--- a/biology/Médecine/Nerf_cutané_palmaire/Nerf_cutané_palmaire.xlsx
+++ b/biology/Médecine/Nerf_cutané_palmaire/Nerf_cutané_palmaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_palmaire</t>
+          <t>Nerf_cutané_palmaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 La nerf cutané palmaire (ou rameau palmaire du nerf médian) est un nerf de l'avant-bras.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_palmaire</t>
+          <t>Nerf_cutané_palmaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf cutané palmaire est une branche du nerf médian qui naît à la partie distale de l'avant-bras.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_palmaire</t>
+          <t>Nerf_cutané_palmaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le nerf cutané palmaire perce le ligament carpien palmaire et se divise en une branche latérale et une branche médiale ;
 La branche latérale innerve la peau de l'éminence thénar et communique avec la branche palmaire du nerf cutané latéral de l'avant-bras.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_cutan%C3%A9_palmaire</t>
+          <t>Nerf_cutané_palmaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf cutané palmaire chemine superficiellement par rapport au rétinaculum des fléchisseurs et donc la fonction de cette branche du nerf médian n'est pas altérée par le syndrome du canal carpien[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf cutané palmaire chemine superficiellement par rapport au rétinaculum des fléchisseurs et donc la fonction de cette branche du nerf médian n'est pas altérée par le syndrome du canal carpien.
 </t>
         </is>
       </c>
